--- a/input/Lewis World Species List 6 APR 2021.xlsx
+++ b/input/Lewis World Species List 6 APR 2021.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/18c1f91d246f9ff5/Documents/GitHub/tpt-siphonaptera/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187DBF34-39D1-48E2-A878-466AE60D80FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{106C5920-8451-4FC6-BBF2-4FF862A97DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14042" uniqueCount="3796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14048" uniqueCount="3796">
   <si>
     <t>SPECIES</t>
   </si>
@@ -12453,8 +12453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2742"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1855" workbookViewId="0">
-      <selection activeCell="G1856" sqref="G1856"/>
+    <sheetView tabSelected="1" topLeftCell="A1418" workbookViewId="0">
+      <selection activeCell="B1426" sqref="B1426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35612,9 +35612,11 @@
       </c>
     </row>
     <row r="1087" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1087" s="1"/>
+      <c r="A1087" s="1" t="s">
+        <v>3388</v>
+      </c>
       <c r="B1087" s="1" t="s">
-        <v>3784</v>
+        <v>3449</v>
       </c>
       <c r="C1087" s="10" t="s">
         <v>3515</v>
@@ -52606,6 +52608,15 @@
       <c r="G1886" s="2"/>
     </row>
     <row r="1887" spans="1:7" ht="42" x14ac:dyDescent="0.5">
+      <c r="A1887" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B1887" s="1" t="s">
+        <v>3405</v>
+      </c>
+      <c r="C1887" s="10" t="s">
+        <v>3598</v>
+      </c>
       <c r="D1887" s="1" t="s">
         <v>2444</v>
       </c>
@@ -54524,7 +54535,9 @@
       <c r="G1977" s="2"/>
     </row>
     <row r="1978" spans="1:7" ht="42" x14ac:dyDescent="0.5">
-      <c r="A1978" s="1"/>
+      <c r="A1978" s="1" t="s">
+        <v>3391</v>
+      </c>
       <c r="B1978" s="1" t="s">
         <v>3477</v>
       </c>
@@ -67851,9 +67864,11 @@
       <c r="G2604" s="2"/>
     </row>
     <row r="2605" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2605" s="1"/>
+      <c r="A2605" s="1" t="s">
+        <v>3391</v>
+      </c>
       <c r="B2605" s="1" t="s">
-        <v>3784</v>
+        <v>3392</v>
       </c>
       <c r="C2605" s="1" t="s">
         <v>3679</v>
